--- a/conf/acc_ids.xlsx
+++ b/conf/acc_ids.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="6640" windowWidth="24300" windowHeight="13240" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25620" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
   <si>
     <t>id</t>
   </si>
@@ -1174,6 +1174,9 @@
   </si>
   <si>
     <t>HM101+HM102</t>
+  </si>
+  <si>
+    <t>deepseq</t>
   </si>
 </sst>
 </file>
@@ -1222,8 +1225,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1322,7 +1339,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1370,6 +1387,13 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1417,6 +1441,13 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1746,19 +1777,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA343"/>
+  <dimension ref="A1:AB343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AA341" sqref="A1:AA341"/>
+      <selection pane="bottomLeft" sqref="A1:AB341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="27" width="7.1640625" customWidth="1"/>
+    <col min="1" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="20" width="7.1640625" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" customWidth="1"/>
+    <col min="22" max="22" width="6.1640625" customWidth="1"/>
+    <col min="23" max="23" width="6" customWidth="1"/>
+    <col min="24" max="24" width="6.1640625" customWidth="1"/>
+    <col min="25" max="26" width="5.83203125" customWidth="1"/>
+    <col min="27" max="27" width="6.1640625" customWidth="1"/>
+    <col min="28" max="28" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1840,8 +1881,11 @@
       <c r="AA1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1906,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1971,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2036,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2100,8 +2144,11 @@
       <c r="W5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2169,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2234,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2296,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2358,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2423,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2487,8 +2534,11 @@
       <c r="W11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2553,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2618,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2683,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2748,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2813,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2878,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2897,8 +2947,11 @@
       <c r="P18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2926,8 +2979,11 @@
       <c r="AA19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2992,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -3057,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -3122,7 +3178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -3141,8 +3197,11 @@
       <c r="P23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3207,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3272,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -3337,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -3399,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -3464,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -3529,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -3554,8 +3613,11 @@
       <c r="Z30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AB30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -3575,7 +3637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -3613,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -3648,7 +3710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -3686,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -3723,8 +3785,11 @@
       <c r="W35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="AB35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -3758,8 +3823,11 @@
       <c r="W36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="AB36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -3797,7 +3865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -3835,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -3873,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:28">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -3911,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:28">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -3949,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -3987,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:28">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -4025,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:28">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -4063,7 +4131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:28">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -4101,7 +4169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:28">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -4139,7 +4207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:28">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -4174,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:28">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -4209,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:28">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -4247,7 +4315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:28">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -4285,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:28">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -4325,8 +4393,11 @@
       <c r="W51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="AB51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -4361,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:28">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -4396,7 +4467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:28">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -4434,7 +4505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:28">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -4472,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:28">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -4510,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:28">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -4547,8 +4618,11 @@
       <c r="W57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="AB57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -4586,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:28">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -4623,8 +4697,11 @@
       <c r="W59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="AB59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -4659,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:28">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -4696,8 +4773,11 @@
       <c r="W61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="AB61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -4711,7 +4791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:28">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -4725,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:28">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -4739,7 +4819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:28">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -4753,7 +4833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:28">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -4766,8 +4846,11 @@
       <c r="W66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="AB66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -4781,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:28">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -4795,7 +4878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:28">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -4809,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:28">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -4823,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:28">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -4837,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:28">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -4851,7 +4934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:28">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -4865,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:28">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -4879,7 +4962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:28">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -4893,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:28">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -4907,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:28">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -4921,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:28">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -4935,7 +5018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:28">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -4949,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:28">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -4963,7 +5046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:28">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -4977,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:28">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -4991,7 +5074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:28">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -5005,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:28">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -5018,8 +5101,11 @@
       <c r="W84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:23">
+      <c r="AB84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -5033,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:28">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -5047,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:28">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -5061,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:28">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -5075,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:28">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -5089,7 +5175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:28">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -5103,12 +5189,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:28">
       <c r="A91" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="AB91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -5122,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:28">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -5136,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:28">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -5150,12 +5239,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:28">
       <c r="A95" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="96" spans="1:23">
+      <c r="AB95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -5168,8 +5260,11 @@
       <c r="W96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:27">
+      <c r="AB96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -5183,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:28">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -5197,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:28">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -5211,7 +5306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:28">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -5225,12 +5320,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:28">
       <c r="A101" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:28">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -5309,8 +5404,11 @@
       <c r="AA102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:27">
+      <c r="AB102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -5342,17 +5440,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:28">
       <c r="A104" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:28">
       <c r="A105" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:28">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -5366,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:28">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -5379,8 +5477,11 @@
       <c r="W107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:27">
+      <c r="AB107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -5394,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:28">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -5408,7 +5509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:28">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -5421,13 +5522,16 @@
       <c r="W110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:27">
+      <c r="AB110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
       <c r="A111" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:28">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -5441,7 +5545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:28">
       <c r="A113" t="s">
         <v>109</v>
       </c>
@@ -5455,12 +5559,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:28">
       <c r="A114" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:28">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -5474,7 +5578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:28">
       <c r="A116" t="s">
         <v>111</v>
       </c>
@@ -5488,12 +5592,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:28">
       <c r="A117" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:28">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -5506,8 +5610,11 @@
       <c r="W118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:23">
+      <c r="AB118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28">
       <c r="A119" t="s">
         <v>113</v>
       </c>
@@ -5521,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:28">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -5535,7 +5642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:28">
       <c r="A121" t="s">
         <v>115</v>
       </c>
@@ -5549,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:28">
       <c r="A122" t="s">
         <v>116</v>
       </c>
@@ -5563,7 +5670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:28">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -5577,12 +5684,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:28">
       <c r="A124" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:28">
       <c r="A125" t="s">
         <v>118</v>
       </c>
@@ -5596,7 +5703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:28">
       <c r="A126" t="s">
         <v>119</v>
       </c>
@@ -5609,8 +5716,11 @@
       <c r="W126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:23">
+      <c r="AB126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28">
       <c r="A127" t="s">
         <v>120</v>
       </c>
@@ -5624,7 +5734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:28">
       <c r="A128" t="s">
         <v>121</v>
       </c>
@@ -5638,7 +5748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:28">
       <c r="A129" t="s">
         <v>122</v>
       </c>
@@ -5652,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:28">
       <c r="A130" t="s">
         <v>123</v>
       </c>
@@ -5665,8 +5775,11 @@
       <c r="W130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:23">
+      <c r="AB130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28">
       <c r="A131" t="s">
         <v>124</v>
       </c>
@@ -5680,7 +5793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:28">
       <c r="A132" t="s">
         <v>125</v>
       </c>
@@ -5694,12 +5807,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:28">
       <c r="A133" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:28">
       <c r="A134" t="s">
         <v>126</v>
       </c>
@@ -5713,7 +5826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:28">
       <c r="A135" t="s">
         <v>127</v>
       </c>
@@ -5726,8 +5839,11 @@
       <c r="W135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:23">
+      <c r="AB135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28">
       <c r="A136" t="s">
         <v>128</v>
       </c>
@@ -5741,17 +5857,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:28">
       <c r="A137" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:28">
       <c r="A138" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:28">
       <c r="A139" t="s">
         <v>129</v>
       </c>
@@ -5765,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:28">
       <c r="A140" t="s">
         <v>130</v>
       </c>
@@ -5779,12 +5895,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:28">
       <c r="A141" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:28">
       <c r="A142" t="s">
         <v>131</v>
       </c>
@@ -5798,12 +5914,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:28">
       <c r="A143" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:28">
       <c r="A144" t="s">
         <v>132</v>
       </c>
@@ -5817,12 +5933,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:28">
       <c r="A145" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:28">
       <c r="A146" t="s">
         <v>133</v>
       </c>
@@ -5836,7 +5952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:28">
       <c r="A147" t="s">
         <v>134</v>
       </c>
@@ -5850,7 +5966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:28">
       <c r="A148" t="s">
         <v>135</v>
       </c>
@@ -5864,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:28">
       <c r="A149" t="s">
         <v>136</v>
       </c>
@@ -5878,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:28">
       <c r="A150" t="s">
         <v>137</v>
       </c>
@@ -5892,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:28">
       <c r="A151" t="s">
         <v>138</v>
       </c>
@@ -5906,7 +6022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:28">
       <c r="A152" t="s">
         <v>139</v>
       </c>
@@ -5919,8 +6035,11 @@
       <c r="W152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:23">
+      <c r="AB152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28">
       <c r="A153" t="s">
         <v>140</v>
       </c>
@@ -5934,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:28">
       <c r="A154" t="s">
         <v>141</v>
       </c>
@@ -5948,7 +6067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:28">
       <c r="A155" t="s">
         <v>142</v>
       </c>
@@ -5962,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:28">
       <c r="A156" t="s">
         <v>143</v>
       </c>
@@ -5976,7 +6095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:28">
       <c r="A157" t="s">
         <v>144</v>
       </c>
@@ -5990,7 +6109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:28">
       <c r="A158" t="s">
         <v>145</v>
       </c>
@@ -6004,12 +6123,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:28">
       <c r="A159" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:28">
       <c r="A160" t="s">
         <v>146</v>
       </c>
@@ -6023,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:28">
       <c r="A161" t="s">
         <v>147</v>
       </c>
@@ -6037,7 +6156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:28">
       <c r="A162" t="s">
         <v>148</v>
       </c>
@@ -6050,8 +6169,11 @@
       <c r="W162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:23">
+      <c r="AB162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28">
       <c r="A163" t="s">
         <v>149</v>
       </c>
@@ -6065,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:28">
       <c r="A164" t="s">
         <v>150</v>
       </c>
@@ -6078,8 +6200,11 @@
       <c r="W164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:23">
+      <c r="AB164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28">
       <c r="A165" t="s">
         <v>151</v>
       </c>
@@ -6093,7 +6218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:28">
       <c r="A166" t="s">
         <v>152</v>
       </c>
@@ -6107,7 +6232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:28">
       <c r="A167" t="s">
         <v>153</v>
       </c>
@@ -6121,7 +6246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:28">
       <c r="A168" t="s">
         <v>154</v>
       </c>
@@ -6135,7 +6260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:28">
       <c r="A169" t="s">
         <v>155</v>
       </c>
@@ -6149,7 +6274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:28">
       <c r="A170" t="s">
         <v>156</v>
       </c>
@@ -6163,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:28">
       <c r="A171" t="s">
         <v>157</v>
       </c>
@@ -6177,12 +6302,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:28">
       <c r="A172" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:28">
       <c r="A173" t="s">
         <v>158</v>
       </c>
@@ -6196,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:28">
       <c r="A174" t="s">
         <v>159</v>
       </c>
@@ -6210,12 +6335,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:28">
       <c r="A175" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:28">
       <c r="A176" t="s">
         <v>160</v>
       </c>
@@ -6229,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:28">
       <c r="A177" t="s">
         <v>161</v>
       </c>
@@ -6243,7 +6368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:28">
       <c r="A178" t="s">
         <v>162</v>
       </c>
@@ -6257,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:28">
       <c r="A179" t="s">
         <v>163</v>
       </c>
@@ -6270,8 +6395,11 @@
       <c r="W179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:23">
+      <c r="AB179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28">
       <c r="A180" t="s">
         <v>164</v>
       </c>
@@ -6285,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:28">
       <c r="A181" t="s">
         <v>165</v>
       </c>
@@ -6299,7 +6427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:28">
       <c r="A182" t="s">
         <v>166</v>
       </c>
@@ -6313,7 +6441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:28">
       <c r="A183" t="s">
         <v>167</v>
       </c>
@@ -6327,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:28">
       <c r="A184" t="s">
         <v>168</v>
       </c>
@@ -6341,7 +6469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:28">
       <c r="A185" t="s">
         <v>169</v>
       </c>
@@ -6355,7 +6483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:28">
       <c r="A186" t="s">
         <v>170</v>
       </c>
@@ -6368,8 +6496,11 @@
       <c r="W186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:23">
+      <c r="AB186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28">
       <c r="A187" t="s">
         <v>171</v>
       </c>
@@ -6383,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:28">
       <c r="A188" t="s">
         <v>172</v>
       </c>
@@ -6397,7 +6528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:28">
       <c r="A189" t="s">
         <v>173</v>
       </c>
@@ -6411,7 +6542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:28">
       <c r="A190" t="s">
         <v>174</v>
       </c>
@@ -6425,7 +6556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:28">
       <c r="A191" t="s">
         <v>175</v>
       </c>
@@ -6439,7 +6570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:28">
       <c r="A192" t="s">
         <v>176</v>
       </c>
@@ -6453,7 +6584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:28">
       <c r="A193" t="s">
         <v>177</v>
       </c>
@@ -6467,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:28">
       <c r="A194" t="s">
         <v>178</v>
       </c>
@@ -6481,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:28">
       <c r="A195" t="s">
         <v>179</v>
       </c>
@@ -6495,7 +6626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:28">
       <c r="A196" t="s">
         <v>180</v>
       </c>
@@ -6509,7 +6640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:28">
       <c r="A197" t="s">
         <v>181</v>
       </c>
@@ -6523,7 +6654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:28">
       <c r="A198" t="s">
         <v>182</v>
       </c>
@@ -6536,8 +6667,11 @@
       <c r="W198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:23">
+      <c r="AB198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28">
       <c r="A199" t="s">
         <v>183</v>
       </c>
@@ -6551,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:28">
       <c r="A200" t="s">
         <v>184</v>
       </c>
@@ -6565,7 +6699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:28">
       <c r="A201" t="s">
         <v>185</v>
       </c>
@@ -6579,7 +6713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:28">
       <c r="A202" t="s">
         <v>186</v>
       </c>
@@ -6592,8 +6726,11 @@
       <c r="W202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:23">
+      <c r="AB202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:28">
       <c r="A203" t="s">
         <v>187</v>
       </c>
@@ -6607,7 +6744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:28">
       <c r="A204" t="s">
         <v>188</v>
       </c>
@@ -6621,12 +6758,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:28">
       <c r="A205" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="206" spans="1:23">
+      <c r="AB205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:28">
       <c r="A206" t="s">
         <v>189</v>
       </c>
@@ -6640,7 +6780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:28">
       <c r="A207" t="s">
         <v>190</v>
       </c>
@@ -6654,7 +6794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:28">
       <c r="A208" t="s">
         <v>191</v>
       </c>
@@ -8116,7 +8256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:22">
+    <row r="321" spans="1:28">
       <c r="A321" t="s">
         <v>300</v>
       </c>
@@ -8127,7 +8267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:22">
+    <row r="322" spans="1:28">
       <c r="A322" t="s">
         <v>301</v>
       </c>
@@ -8138,7 +8278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:22">
+    <row r="323" spans="1:28">
       <c r="A323" t="s">
         <v>302</v>
       </c>
@@ -8149,7 +8289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:22">
+    <row r="324" spans="1:28">
       <c r="A324" t="s">
         <v>303</v>
       </c>
@@ -8166,7 +8306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:22">
+    <row r="325" spans="1:28">
       <c r="A325" t="s">
         <v>304</v>
       </c>
@@ -8179,8 +8319,11 @@
       <c r="P325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:22">
+      <c r="AB325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:28">
       <c r="A326" t="s">
         <v>305</v>
       </c>
@@ -8191,7 +8334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:22">
+    <row r="327" spans="1:28">
       <c r="A327" t="s">
         <v>306</v>
       </c>
@@ -8202,7 +8345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:22">
+    <row r="328" spans="1:28">
       <c r="A328" t="s">
         <v>307</v>
       </c>
@@ -8213,7 +8356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:22">
+    <row r="329" spans="1:28">
       <c r="A329" t="s">
         <v>308</v>
       </c>
@@ -8224,7 +8367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:22">
+    <row r="330" spans="1:28">
       <c r="A330" t="s">
         <v>309</v>
       </c>
@@ -8235,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:22">
+    <row r="331" spans="1:28">
       <c r="A331" t="s">
         <v>310</v>
       </c>
@@ -8255,7 +8398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:22">
+    <row r="332" spans="1:28">
       <c r="A332" t="s">
         <v>311</v>
       </c>
@@ -8266,7 +8409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:22">
+    <row r="333" spans="1:28">
       <c r="A333" t="s">
         <v>312</v>
       </c>
@@ -8277,7 +8420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:22">
+    <row r="334" spans="1:28">
       <c r="A334" t="s">
         <v>313</v>
       </c>
@@ -8288,7 +8431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:22">
+    <row r="335" spans="1:28">
       <c r="A335" t="s">
         <v>314</v>
       </c>
@@ -8305,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:22">
+    <row r="336" spans="1:28">
       <c r="A336" t="s">
         <v>315</v>
       </c>
@@ -8316,7 +8459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:27">
+    <row r="337" spans="1:28">
       <c r="A337" t="s">
         <v>316</v>
       </c>
@@ -8327,7 +8470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:27">
+    <row r="338" spans="1:28">
       <c r="A338" t="s">
         <v>317</v>
       </c>
@@ -8338,7 +8481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:27">
+    <row r="339" spans="1:28">
       <c r="A339" t="s">
         <v>318</v>
       </c>
@@ -8349,7 +8492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:27">
+    <row r="340" spans="1:28">
       <c r="A340" t="s">
         <v>319</v>
       </c>
@@ -8360,7 +8503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:27">
+    <row r="341" spans="1:28">
       <c r="A341" t="s">
         <v>343</v>
       </c>
@@ -8374,7 +8517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:27">
+    <row r="342" spans="1:28">
       <c r="B342">
         <f>SUM(B2:B341)</f>
         <v>26</v>
@@ -8436,31 +8579,31 @@
         <v>63</v>
       </c>
       <c r="Q342">
-        <f>SUM(Q2:Q341)</f>
+        <f t="shared" ref="Q342:V342" si="1">SUM(Q2:Q341)</f>
         <v>57</v>
       </c>
       <c r="R342">
-        <f>SUM(R2:R341)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S342">
-        <f>SUM(S2:S341)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="T342">
-        <f>SUM(T2:T341)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="U342">
-        <f>SUM(U2:U341)</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="V342">
-        <f>SUM(V2:V341)</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="W342">
-        <f t="shared" ref="W342" si="1">SUM(W2:W341)</f>
+        <f t="shared" ref="W342" si="2">SUM(W2:W341)</f>
         <v>261</v>
       </c>
       <c r="X342">
@@ -8476,11 +8619,15 @@
         <v>3</v>
       </c>
       <c r="AA342">
-        <f t="shared" ref="AA342" si="2">SUM(AA2:AA341)</f>
+        <f t="shared" ref="AA342:AB342" si="3">SUM(AA2:AA341)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="343" spans="1:27">
+      <c r="AB342">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="343" spans="1:28">
       <c r="J343" t="s">
         <v>356</v>
       </c>
